--- a/data/en/DrinkingWater.xlsx
+++ b/data/en/DrinkingWater.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco Abreu - PC\Documents\Python Projects\Matriz_Agua\data\en\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco Abreu - PC\Documents\Python Projects\matrizaguaen\data\en\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93E774C-4E0F-492A-A8AB-DD5BA64E6AF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E68C8C-B8A0-4BFF-9CEA-5B030AC52C96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CC9C41AC-D841-45C3-BC3A-7E72D0D4C5EE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CC9C41AC-D841-45C3-BC3A-7E72D0D4C5EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sector_Consumption" sheetId="1" r:id="rId1"/>
@@ -442,7 +442,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="0" y="66675"/>
-          <a:ext cx="2733674" cy="590550"/>
+          <a:ext cx="2754629" cy="590550"/>
           <a:chOff x="571501" y="47625"/>
           <a:chExt cx="2733674" cy="590550"/>
         </a:xfrm>
@@ -590,7 +590,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="0" y="66675"/>
-          <a:ext cx="2733674" cy="590550"/>
+          <a:ext cx="2754629" cy="590550"/>
           <a:chOff x="571501" y="47625"/>
           <a:chExt cx="2733674" cy="590550"/>
         </a:xfrm>
@@ -1006,23 +1006,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D87325-FA51-410A-972F-CB5F10F0BC22}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="5" customWidth="1"/>
     <col min="10" max="10" width="10" style="5" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="5"/>
+    <col min="11" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="13" customFormat="1" ht="39" customHeight="1">
@@ -1032,14 +1032,14 @@
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
     </row>
-    <row r="3" spans="1:9" s="17" customFormat="1" ht="12.75">
+    <row r="3" spans="1:9" s="17" customFormat="1" ht="13.8">
       <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
     </row>
-    <row r="5" spans="1:9" ht="30">
+    <row r="5" spans="1:9" ht="28.8">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17.25">
+    <row r="6" spans="1:9" ht="16.2">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="45">
+    <row r="7" spans="1:9" ht="43.2">
       <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
@@ -1264,6 +1264,35 @@
       </c>
       <c r="I15" s="10">
         <v>54469.966149016742</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B16" s="3">
+        <v>27102.164000000001</v>
+      </c>
+      <c r="C16" s="3">
+        <v>14026.593000000001</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2018.3050000000001</v>
+      </c>
+      <c r="E16" s="3">
+        <v>3347.4259999999999</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2604.2750000000001</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1481.0319999999999</v>
+      </c>
+      <c r="H16" s="3">
+        <v>4214.5879999999997</v>
+      </c>
+      <c r="I16" s="10">
+        <v>54794.383000000002</v>
       </c>
     </row>
     <row r="21" spans="2:2">
@@ -1280,16 +1309,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3885A242-B590-4F18-AE9E-C733618436C5}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" customWidth="1"/>
-    <col min="3" max="10" width="17.5703125" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" customWidth="1"/>
+    <col min="3" max="10" width="17.5546875" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="13" customFormat="1" ht="39" customHeight="1">
@@ -1299,7 +1328,7 @@
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
     </row>
-    <row r="3" spans="1:12" s="17" customFormat="1" ht="12.75">
+    <row r="3" spans="1:12" s="17" customFormat="1" ht="13.8">
       <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
@@ -1314,7 +1343,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="17.25">
+    <row r="6" spans="1:12" ht="16.2">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
@@ -1325,7 +1354,7 @@
     <row r="9" spans="1:12">
       <c r="A9"/>
     </row>
-    <row r="10" spans="1:12" ht="30">
+    <row r="10" spans="1:12" ht="28.8">
       <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
@@ -1597,7 +1626,46 @@
         <v>23077.956190000001</v>
       </c>
     </row>
-    <row r="19" spans="4:4">
+    <row r="17" spans="1:12">
+      <c r="A17" s="19">
+        <v>2019</v>
+      </c>
+      <c r="B17" s="3">
+        <v>4085.3069999999998</v>
+      </c>
+      <c r="C17" s="3">
+        <v>5525.06</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1696.7339999999999</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2410.46</v>
+      </c>
+      <c r="F17" s="3">
+        <v>974.78499999999997</v>
+      </c>
+      <c r="G17" s="3">
+        <v>975.46400000000006</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1939.54</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1226.6489999999999</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1215.287</v>
+      </c>
+      <c r="K17" s="3">
+        <v>3428.3449999999998</v>
+      </c>
+      <c r="L17" s="3">
+        <f t="shared" ref="L17" si="1">+SUM(B17:K17)</f>
+        <v>23477.631000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="D19" s="1"/>
     </row>
   </sheetData>
